--- a/data/yannis/output/processed_f.xlsx
+++ b/data/yannis/output/processed_f.xlsx
@@ -527,52 +527,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-80.92</v>
+        <v>-80.92149999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="D2" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="E2" t="n">
-        <v>0.41</v>
+        <v>0.4125</v>
       </c>
       <c r="F2" t="n">
-        <v>-83.38</v>
+        <v>-83.3827</v>
       </c>
       <c r="G2" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="H2" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4</v>
+        <v>0.4003</v>
       </c>
       <c r="J2" t="n">
-        <v>-26.88</v>
+        <v>-26.8833</v>
       </c>
       <c r="K2" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="L2" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="M2" t="n">
-        <v>1.24</v>
+        <v>1.2417</v>
       </c>
       <c r="N2" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O2" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P2" t="n">
-        <v>51.27</v>
+        <v>51.2658</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="3">
@@ -582,52 +582,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-91.27</v>
+        <v>-91.2681</v>
       </c>
       <c r="C3" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="D3" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="E3" t="n">
-        <v>0.37</v>
+        <v>0.3658</v>
       </c>
       <c r="F3" t="n">
-        <v>-90.45</v>
+        <v>-90.4499</v>
       </c>
       <c r="G3" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="H3" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.37</v>
+        <v>0.3691</v>
       </c>
       <c r="J3" t="n">
-        <v>-30.32</v>
+        <v>-30.3206</v>
       </c>
       <c r="K3" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="L3" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.101</v>
       </c>
       <c r="N3" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O3" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P3" t="n">
-        <v>51.27</v>
+        <v>51.2658</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="4">
@@ -637,52 +637,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-90.98</v>
+        <v>-90.9834</v>
       </c>
       <c r="C4" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="D4" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="E4" t="n">
-        <v>0.37</v>
+        <v>0.3669</v>
       </c>
       <c r="F4" t="n">
-        <v>-90.72</v>
+        <v>-90.71559999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="H4" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="I4" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="J4" t="n">
-        <v>-30.23</v>
+        <v>-30.226</v>
       </c>
       <c r="K4" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="L4" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.1044</v>
       </c>
       <c r="N4" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O4" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P4" t="n">
-        <v>51.27</v>
+        <v>51.2658</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="5">
@@ -692,52 +692,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-90.45</v>
+        <v>-90.4477</v>
       </c>
       <c r="C5" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="D5" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="E5" t="n">
-        <v>0.37</v>
+        <v>0.3691</v>
       </c>
       <c r="F5" t="n">
-        <v>-90.47</v>
+        <v>-90.4671</v>
       </c>
       <c r="G5" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="H5" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="I5" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="J5" t="n">
-        <v>-30.05</v>
+        <v>-30.0481</v>
       </c>
       <c r="K5" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="L5" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1109</v>
       </c>
       <c r="N5" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O5" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P5" t="n">
-        <v>51.27</v>
+        <v>51.2658</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="6">
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90.22</v>
+        <v>-90.2223</v>
       </c>
       <c r="C6" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="D6" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="E6" t="n">
         <v>0.37</v>
       </c>
       <c r="F6" t="n">
-        <v>-90.28</v>
+        <v>-90.2809</v>
       </c>
       <c r="G6" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="H6" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="I6" t="n">
-        <v>0.37</v>
+        <v>0.3698</v>
       </c>
       <c r="J6" t="n">
-        <v>-29.97</v>
+        <v>-29.9732</v>
       </c>
       <c r="K6" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="L6" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1137</v>
       </c>
       <c r="N6" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O6" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P6" t="n">
-        <v>51.27</v>
+        <v>51.2658</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="7">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-90.45</v>
+        <v>-90.4477</v>
       </c>
       <c r="C7" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="D7" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="E7" t="n">
-        <v>0.37</v>
+        <v>0.3691</v>
       </c>
       <c r="F7" t="n">
-        <v>-90.47</v>
+        <v>-90.4671</v>
       </c>
       <c r="G7" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="H7" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="I7" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="J7" t="n">
-        <v>-30.05</v>
+        <v>-30.0481</v>
       </c>
       <c r="K7" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="L7" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1109</v>
       </c>
       <c r="N7" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O7" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P7" t="n">
-        <v>51.27</v>
+        <v>51.2658</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="8">
@@ -857,52 +857,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-90.98</v>
+        <v>-90.9834</v>
       </c>
       <c r="C8" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="D8" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="E8" t="n">
-        <v>0.37</v>
+        <v>0.3669</v>
       </c>
       <c r="F8" t="n">
-        <v>-90.72</v>
+        <v>-90.71559999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="H8" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="J8" t="n">
-        <v>-30.23</v>
+        <v>-30.226</v>
       </c>
       <c r="K8" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="L8" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.1044</v>
       </c>
       <c r="N8" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O8" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P8" t="n">
-        <v>51.27</v>
+        <v>51.2658</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="9">
@@ -912,52 +912,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-91.27</v>
+        <v>-91.2681</v>
       </c>
       <c r="C9" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="D9" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="E9" t="n">
-        <v>0.37</v>
+        <v>0.3658</v>
       </c>
       <c r="F9" t="n">
-        <v>-90.45</v>
+        <v>-90.4499</v>
       </c>
       <c r="G9" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="H9" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.37</v>
+        <v>0.3691</v>
       </c>
       <c r="J9" t="n">
-        <v>-30.32</v>
+        <v>-30.3206</v>
       </c>
       <c r="K9" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="L9" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.101</v>
       </c>
       <c r="N9" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O9" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P9" t="n">
-        <v>51.27</v>
+        <v>51.2658</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="10">
@@ -967,52 +967,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-80.92</v>
+        <v>-80.92149999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="D10" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="E10" t="n">
-        <v>0.41</v>
+        <v>0.4125</v>
       </c>
       <c r="F10" t="n">
-        <v>-83.38</v>
+        <v>-83.3827</v>
       </c>
       <c r="G10" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="H10" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4</v>
+        <v>0.4003</v>
       </c>
       <c r="J10" t="n">
-        <v>-26.88</v>
+        <v>-26.8833</v>
       </c>
       <c r="K10" t="n">
-        <v>528.84</v>
+        <v>490</v>
       </c>
       <c r="L10" t="n">
-        <v>50.07</v>
+        <v>50.0725</v>
       </c>
       <c r="M10" t="n">
-        <v>1.24</v>
+        <v>1.2417</v>
       </c>
       <c r="N10" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O10" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P10" t="n">
-        <v>51.27</v>
+        <v>51.2658</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
   </sheetData>
